--- a/uploads/sap_eo_data.xlsx
+++ b/uploads/sap_eo_data.xlsx
@@ -171,7 +171,7 @@
     <t>Пользовательский статус</t>
   </si>
   <si>
-    <t>10000007379014589</t>
+    <t>100000073790145899</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:AB4655"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/uploads/sap_eo_data.xlsx
+++ b/uploads/sap_eo_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Client\C$\Users\ZhupanikEG\Desktop\temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhupanikEG\Desktop\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -539,7 +539,7 @@
   <dimension ref="A1:AB3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/uploads/sap_eo_data.xlsx
+++ b/uploads/sap_eo_data.xlsx
@@ -9,17 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22680" windowHeight="9675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18330" windowHeight="9600"/>
   </bookViews>
   <sheets>
     <sheet name="sap_eo_data" sheetId="1" r:id="rId1"/>
+    <sheet name="x2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="38">
   <si>
     <t>eo_code</t>
   </si>
@@ -42,32 +43,104 @@
     <t>eo_model_id</t>
   </si>
   <si>
-    <t>eo_model_name</t>
-  </si>
-  <si>
     <t>eo_class_code</t>
   </si>
   <si>
-    <t>eo_class_description</t>
-  </si>
-  <si>
     <t>operation_start_date</t>
   </si>
   <si>
     <t>expected_operation_finish_date</t>
   </si>
   <si>
-    <t>test_added_record</t>
-  </si>
-  <si>
-    <t>999</t>
+    <t>100000061885</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>100000061900</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>100000099778</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>100000099779</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>100000099781</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>100000099784</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>Станок буровой DML LP №71</t>
+  </si>
+  <si>
+    <t>11-RUD-CBVZ-LP06</t>
+  </si>
+  <si>
+    <t>Станок буровой DML HP 1450 №72</t>
+  </si>
+  <si>
+    <t>11-RUD-CBVZ-HP01</t>
+  </si>
+  <si>
+    <t>Станок буровой СБШ-250 МНА-32 №54</t>
+  </si>
+  <si>
+    <t>11-RUD-CBVZ-SB37</t>
+  </si>
+  <si>
+    <t>Станок буровой СБШ-250 МНА-32 №55</t>
+  </si>
+  <si>
+    <t>11-RUD-CBVZ-SB38</t>
+  </si>
+  <si>
+    <t>Станок буровой СБШ-250 МНА-32 №56</t>
+  </si>
+  <si>
+    <t>11-RUD-CBVZ-SB39</t>
+  </si>
+  <si>
+    <t>Станок буровой СБШ-250 МНА-32 №57</t>
+  </si>
+  <si>
+    <t>11-RUD-CBVZ-SB40</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>E02_03</t>
+  </si>
+  <si>
+    <t>E02_01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -79,6 +152,14 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -113,17 +194,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный_sap_eo_data" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -423,18 +512,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="4" max="4" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+    <col min="9" max="9" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,26 +560,177 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>36</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3">
+        <v>138</v>
+      </c>
+      <c r="H3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5">
+        <v>76</v>
+      </c>
+      <c r="H5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6">
+        <v>76</v>
+      </c>
+      <c r="H6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G7">
+        <v>76</v>
+      </c>
+      <c r="H7" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/uploads/sap_eo_data.xlsx
+++ b/uploads/sap_eo_data.xlsx
@@ -198,7 +198,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -209,6 +209,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -514,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,6 +587,9 @@
       <c r="H2" t="s">
         <v>36</v>
       </c>
+      <c r="I2" s="4">
+        <v>41767</v>
+      </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -612,6 +616,9 @@
       <c r="H3" t="s">
         <v>36</v>
       </c>
+      <c r="I3" s="4">
+        <v>43096</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -638,6 +645,9 @@
       <c r="H4" t="s">
         <v>37</v>
       </c>
+      <c r="I4" s="4">
+        <v>45323</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -664,6 +674,9 @@
       <c r="H5" t="s">
         <v>37</v>
       </c>
+      <c r="I5" s="4">
+        <v>45323</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -690,6 +703,9 @@
       <c r="H6" t="s">
         <v>37</v>
       </c>
+      <c r="I6" s="4">
+        <v>45323</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -715,6 +731,9 @@
       </c>
       <c r="H7" t="s">
         <v>37</v>
+      </c>
+      <c r="I7" s="4">
+        <v>45323</v>
       </c>
     </row>
   </sheetData>

--- a/uploads/sap_eo_data.xlsx
+++ b/uploads/sap_eo_data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="239">
   <si>
     <t>АО "Полюс Красноярск"</t>
   </si>
@@ -22,31 +22,514 @@
     <t>1105</t>
   </si>
   <si>
-    <t>100000065632</t>
+    <t>100000055510</t>
   </si>
   <si>
     <t>O</t>
   </si>
   <si>
-    <t>Самосвал карьерный 785C №530</t>
-  </si>
-  <si>
-    <t>530</t>
+    <t>Самосвал карьерный HD785-5 №219</t>
+  </si>
+  <si>
+    <t>219</t>
   </si>
   <si>
     <t>100</t>
   </si>
   <si>
-    <t>11-RUD-CGTR-SEBT-CC78</t>
-  </si>
-  <si>
-    <t>Самосвал карьерный №530</t>
+    <t>11-RUD-CGTR-SEBT-KH02</t>
+  </si>
+  <si>
+    <t>1113012020</t>
+  </si>
+  <si>
+    <t>4453</t>
+  </si>
+  <si>
+    <t>960000003</t>
+  </si>
+  <si>
+    <t>HD785-5_E01_01</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>000011403</t>
+  </si>
+  <si>
+    <t>111301</t>
+  </si>
+  <si>
+    <t>Парки БА</t>
+  </si>
+  <si>
+    <t>Транспорт</t>
+  </si>
+  <si>
+    <t>Основной</t>
+  </si>
+  <si>
+    <t>СЭБТ - Коматсу141тн</t>
+  </si>
+  <si>
+    <t>УСТН</t>
+  </si>
+  <si>
+    <t>СИНХ</t>
+  </si>
+  <si>
+    <t>100000055509</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №218</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH01</t>
+  </si>
+  <si>
+    <t>4452</t>
+  </si>
+  <si>
+    <t>000011404</t>
+  </si>
+  <si>
+    <t>100000065577</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный БЕЛАЗ-7540А №52</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-BE07</t>
+  </si>
+  <si>
+    <t>1113011520</t>
+  </si>
+  <si>
+    <t>Y3B7540A50022542</t>
+  </si>
+  <si>
+    <t>960003984</t>
+  </si>
+  <si>
+    <t>БЕЛАЗ-7540А_E01_01</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>000014281</t>
+  </si>
+  <si>
+    <t>СЭБТ - Белазы</t>
+  </si>
+  <si>
+    <t>МТКУ УСТН</t>
+  </si>
+  <si>
+    <t>100000065578</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный БЕЛАЗ-7540А №51</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-BE06</t>
+  </si>
+  <si>
+    <t>Y3B7540A050022537</t>
+  </si>
+  <si>
+    <t>000014282</t>
+  </si>
+  <si>
+    <t>КОНС СИНХ</t>
+  </si>
+  <si>
+    <t>100000065579</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный БЕЛАЗ-7540А №54</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-BE09</t>
+  </si>
+  <si>
+    <t>Y3B7540A50022585</t>
+  </si>
+  <si>
+    <t>000015042</t>
+  </si>
+  <si>
+    <t>100000065580</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный БЕЛАЗ-7540А №53</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-BE08</t>
+  </si>
+  <si>
+    <t>Y3B7540A50022582</t>
+  </si>
+  <si>
+    <t>000015043</t>
+  </si>
+  <si>
+    <t>100000055512</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №222</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH04</t>
+  </si>
+  <si>
+    <t>1113011220</t>
+  </si>
+  <si>
+    <t>4645</t>
+  </si>
+  <si>
+    <t>000016099</t>
+  </si>
+  <si>
+    <t>СЭБТ - Коматсу90тн</t>
+  </si>
+  <si>
+    <t>100000055511</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №220</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH03</t>
+  </si>
+  <si>
+    <t>4647</t>
+  </si>
+  <si>
+    <t>000016101</t>
+  </si>
+  <si>
+    <t>100000065550</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №227</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH07</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №227</t>
+  </si>
+  <si>
+    <t>4750</t>
+  </si>
+  <si>
+    <t>000016312</t>
+  </si>
+  <si>
+    <t>100000065551</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №229</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH08</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №229</t>
+  </si>
+  <si>
+    <t>4749</t>
+  </si>
+  <si>
+    <t>000016314</t>
+  </si>
+  <si>
+    <t>100000055513</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №224</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH05</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №224</t>
+  </si>
+  <si>
+    <t>4693</t>
+  </si>
+  <si>
+    <t>000016773</t>
+  </si>
+  <si>
+    <t>100000065552</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №232</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH11</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №232</t>
+  </si>
+  <si>
+    <t>4777</t>
+  </si>
+  <si>
+    <t>000016775</t>
+  </si>
+  <si>
+    <t>100000065553</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №226</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH06</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №226</t>
+  </si>
+  <si>
+    <t>4728</t>
+  </si>
+  <si>
+    <t>000016776</t>
+  </si>
+  <si>
+    <t>100000065554</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №230</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH09</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №230</t>
+  </si>
+  <si>
+    <t>4774</t>
+  </si>
+  <si>
+    <t>000016777</t>
+  </si>
+  <si>
+    <t>100000065555</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №233</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH12</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №233</t>
+  </si>
+  <si>
+    <t>4775</t>
+  </si>
+  <si>
+    <t>000016778</t>
+  </si>
+  <si>
+    <t>100000065556</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №231</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH10</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №231</t>
+  </si>
+  <si>
+    <t>4776</t>
+  </si>
+  <si>
+    <t>000016779</t>
+  </si>
+  <si>
+    <t>100000065557</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №234</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH13</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №234</t>
+  </si>
+  <si>
+    <t>4951</t>
+  </si>
+  <si>
+    <t>000016991</t>
+  </si>
+  <si>
+    <t>100000065558</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №237</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH16</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №237</t>
+  </si>
+  <si>
+    <t>4950</t>
+  </si>
+  <si>
+    <t>000016992</t>
+  </si>
+  <si>
+    <t>100000065561</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный HD785-5 №236</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-KH15</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №236</t>
+  </si>
+  <si>
+    <t>4953</t>
+  </si>
+  <si>
+    <t>000016994</t>
+  </si>
+  <si>
+    <t>100000065583</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный БЕЛАЗ-7540А №25</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-BE05</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №25</t>
+  </si>
+  <si>
+    <t>Y3B7540A50022831</t>
+  </si>
+  <si>
+    <t>000016997</t>
+  </si>
+  <si>
+    <t>100000065584</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный БЕЛАЗ-7540А №22</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-BE03</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №22</t>
+  </si>
+  <si>
+    <t>Y3B7540A60022946</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>000016998</t>
+  </si>
+  <si>
+    <t>100000062374</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный 785C №410</t>
+  </si>
+  <si>
+    <t>410</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-CC10</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №410</t>
   </si>
   <si>
     <t>1113011620</t>
   </si>
   <si>
-    <t>APX02298</t>
+    <t>APX01648</t>
   </si>
   <si>
     <t>960000001</t>
@@ -55,58 +538,112 @@
     <t>785C_E01_01</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>000034739</t>
-  </si>
-  <si>
-    <t>111301</t>
-  </si>
-  <si>
-    <t>Парки БА</t>
-  </si>
-  <si>
-    <t>Транспорт</t>
-  </si>
-  <si>
-    <t>Основной</t>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>000026538</t>
   </si>
   <si>
     <t>СЭБТ-Катерпилл135тн</t>
   </si>
   <si>
-    <t>УСТН</t>
-  </si>
-  <si>
-    <t>СИНХ</t>
-  </si>
-  <si>
-    <t>100000065633</t>
-  </si>
-  <si>
-    <t>Самосвал карьерный 785C №533</t>
-  </si>
-  <si>
-    <t>533</t>
-  </si>
-  <si>
-    <t>11-RUD-CGTR-SEBT-CC81</t>
-  </si>
-  <si>
-    <t>Самосвал карьерный №533</t>
-  </si>
-  <si>
-    <t>APX02301</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>000034740</t>
+    <t>100000062375</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный 785C №408</t>
+  </si>
+  <si>
+    <t>408</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-CC08</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №408</t>
+  </si>
+  <si>
+    <t>APX01647</t>
+  </si>
+  <si>
+    <t>000026678</t>
+  </si>
+  <si>
+    <t>100000062378</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный 785C №412</t>
+  </si>
+  <si>
+    <t>412</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-CC12</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №412</t>
+  </si>
+  <si>
+    <t>APX01674</t>
+  </si>
+  <si>
+    <t>000026864</t>
+  </si>
+  <si>
+    <t>100000065597</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный 777F №141</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-CF06</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №141</t>
+  </si>
+  <si>
+    <t>1113011120</t>
+  </si>
+  <si>
+    <t>JRP02410</t>
+  </si>
+  <si>
+    <t>960003595</t>
+  </si>
+  <si>
+    <t>777F_E01_01</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>000029060</t>
+  </si>
+  <si>
+    <t>СЭБТ-Катерпиллар90т</t>
+  </si>
+  <si>
+    <t>100000065973</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный 785C №421</t>
+  </si>
+  <si>
+    <t>421</t>
+  </si>
+  <si>
+    <t>11-RUD-CGTR-SEBT-CC20</t>
+  </si>
+  <si>
+    <t>Самосвал карьерный №421</t>
+  </si>
+  <si>
+    <t>APX01802</t>
+  </si>
+  <si>
+    <t>000029513</t>
   </si>
   <si>
     <t>Наименование БЕ</t>
@@ -292,7 +829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AB3"/>
+  <dimension ref="A1:AB27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -305,15 +842,15 @@
     <col min="3" max="3" bestFit="1" width="6" customWidth="1"/>
     <col min="4" max="4" bestFit="1" width="22" customWidth="1"/>
     <col min="5" max="5" bestFit="1" width="8" customWidth="1"/>
-    <col min="6" max="6" bestFit="1" width="31" customWidth="1"/>
+    <col min="6" max="6" bestFit="1" width="36" customWidth="1"/>
     <col min="7" max="7" bestFit="1" width="11" customWidth="1"/>
     <col min="8" max="8" bestFit="1" width="12" customWidth="1"/>
     <col min="9" max="9" bestFit="1" width="23" customWidth="1"/>
-    <col min="10" max="10" bestFit="1" width="29" customWidth="1"/>
+    <col min="10" max="10" bestFit="1" width="36" customWidth="1"/>
     <col min="11" max="11" bestFit="1" width="12" customWidth="1"/>
-    <col min="12" max="12" bestFit="1" width="10" customWidth="1"/>
+    <col min="12" max="12" bestFit="1" width="19" customWidth="1"/>
     <col min="13" max="13" bestFit="1" width="17" customWidth="1"/>
-    <col min="14" max="14" bestFit="1" width="13" customWidth="1"/>
+    <col min="14" max="14" bestFit="1" width="20" customWidth="1"/>
     <col min="15" max="15" bestFit="1" width="14" customWidth="1"/>
     <col min="16" max="16" bestFit="1" width="22" customWidth="1"/>
     <col min="17" max="17" bestFit="1" width="13" customWidth="1"/>
@@ -326,94 +863,94 @@
     <col min="24" max="24" bestFit="1" width="11" customWidth="1"/>
     <col min="25" max="25" bestFit="1" width="10" customWidth="1"/>
     <col min="26" max="26" bestFit="1" width="21" customWidth="1"/>
-    <col min="27" max="27" bestFit="1" width="6" customWidth="1"/>
-    <col min="28" max="28" bestFit="1" width="16" customWidth="1"/>
+    <col min="27" max="27" bestFit="1" width="18" customWidth="1"/>
+    <col min="28" max="28" bestFit="1" width="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28">
       <c r="A1" s="1" t="s">
-        <v>32</v>
+        <v>211</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>33</v>
+        <v>212</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>34</v>
+        <v>213</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>35</v>
+        <v>214</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
+        <v>215</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>216</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>38</v>
+        <v>217</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>41</v>
+        <v>220</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>42</v>
+        <v>221</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>43</v>
+        <v>222</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>44</v>
+        <v>223</v>
       </c>
       <c r="N1" s="3" t="s">
-        <v>45</v>
+        <v>224</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>46</v>
+        <v>225</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>47</v>
+        <v>226</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>48</v>
+        <v>227</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="S1" s="3" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>51</v>
+        <v>230</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>53</v>
+        <v>232</v>
       </c>
       <c r="W1" s="3" t="s">
-        <v>54</v>
+        <v>233</v>
       </c>
       <c r="X1" s="3" t="s">
-        <v>55</v>
+        <v>234</v>
       </c>
       <c r="Y1" s="3" t="s">
-        <v>56</v>
+        <v>235</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AA1" s="3" t="s">
-        <v>58</v>
+        <v>236</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>237</v>
       </c>
       <c r="AB1" s="3" t="s">
-        <v>59</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:28">
@@ -445,57 +982,57 @@
         <v>8</v>
       </c>
       <c r="J2" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>10</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>11</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>12</v>
       </c>
-      <c r="N2" t="s">
-        <v>13</v>
-      </c>
       <c r="O2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P2" s="2">
+        <v>38162</v>
+      </c>
+      <c r="Q2" t="s">
         <v>14</v>
-      </c>
-      <c r="P2" s="2">
-        <v>41698</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>15</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
       <c r="T2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U2" t="s">
+        <v>15</v>
+      </c>
+      <c r="V2" t="s">
         <v>16</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>17</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>18</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>20</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>21</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>22</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -509,77 +1046,2057 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
       </c>
       <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" t="s">
-        <v>26</v>
       </c>
       <c r="H3" t="s">
         <v>7</v>
       </c>
       <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" t="s">
         <v>27</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" t="s">
+        <v>12</v>
+      </c>
+      <c r="O3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P3" s="2">
+        <v>38162</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>14</v>
+      </c>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" t="s">
+        <v>13</v>
+      </c>
+      <c r="U3" t="s">
         <v>28</v>
       </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
+      <c r="V3" t="s">
+        <v>16</v>
+      </c>
+      <c r="W3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
         <v>29</v>
       </c>
-      <c r="M3" t="s">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" t="s">
+        <v>13</v>
+      </c>
+      <c r="P4" s="2">
+        <v>38504</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>37</v>
+      </c>
+      <c r="R4" s="2">
+        <v>44621</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" t="s">
+        <v>13</v>
+      </c>
+      <c r="U4" t="s">
+        <v>38</v>
+      </c>
+      <c r="V4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W4" t="s">
+        <v>17</v>
+      </c>
+      <c r="X4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" t="s">
+        <v>33</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>36</v>
+      </c>
+      <c r="O5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="2">
+        <v>38504</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U5" t="s">
+        <v>46</v>
+      </c>
+      <c r="V5" t="s">
+        <v>16</v>
+      </c>
+      <c r="W5" t="s">
+        <v>17</v>
+      </c>
+      <c r="X5" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" s="2">
+        <v>38534</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>37</v>
+      </c>
+      <c r="R6" s="2">
+        <v>44621</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" t="s">
+        <v>53</v>
+      </c>
+      <c r="V6" t="s">
+        <v>16</v>
+      </c>
+      <c r="W6" t="s">
+        <v>17</v>
+      </c>
+      <c r="X6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" t="s">
+        <v>55</v>
+      </c>
+      <c r="K7" t="s">
+        <v>33</v>
+      </c>
+      <c r="L7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" t="s">
+        <v>13</v>
+      </c>
+      <c r="P7" s="2">
+        <v>38534</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" t="s">
+        <v>13</v>
+      </c>
+      <c r="U7" t="s">
+        <v>59</v>
+      </c>
+      <c r="V7" t="s">
+        <v>16</v>
+      </c>
+      <c r="W7" t="s">
+        <v>17</v>
+      </c>
+      <c r="X7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" t="s">
+        <v>61</v>
+      </c>
+      <c r="K8" t="s">
+        <v>64</v>
+      </c>
+      <c r="L8" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" t="s">
-        <v>14</v>
-      </c>
-      <c r="P3" s="2">
-        <v>41704</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2">
-        <v>44539</v>
-      </c>
-      <c r="T3" t="s">
-        <v>14</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
-      </c>
-      <c r="V3" t="s">
+      <c r="O8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="2">
+        <v>38643</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>37</v>
+      </c>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
+      <c r="U8" t="s">
+        <v>66</v>
+      </c>
+      <c r="V8" t="s">
+        <v>16</v>
+      </c>
+      <c r="W8" t="s">
         <v>17</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X8" t="s">
         <v>18</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y8" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z8" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" t="s">
+        <v>64</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+      <c r="M9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
+        <v>12</v>
+      </c>
+      <c r="O9" t="s">
+        <v>13</v>
+      </c>
+      <c r="P9" s="2">
+        <v>38643</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>37</v>
+      </c>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" t="s">
+        <v>13</v>
+      </c>
+      <c r="U9" t="s">
+        <v>73</v>
+      </c>
+      <c r="V9" t="s">
+        <v>16</v>
+      </c>
+      <c r="W9" t="s">
+        <v>17</v>
+      </c>
+      <c r="X9" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J10" t="s">
+        <v>78</v>
+      </c>
+      <c r="K10" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O10" t="s">
+        <v>13</v>
+      </c>
+      <c r="P10" s="2">
+        <v>38700</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>37</v>
+      </c>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" t="s">
+        <v>13</v>
+      </c>
+      <c r="U10" t="s">
+        <v>80</v>
+      </c>
+      <c r="V10" t="s">
+        <v>16</v>
+      </c>
+      <c r="W10" t="s">
+        <v>17</v>
+      </c>
+      <c r="X10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>64</v>
+      </c>
+      <c r="L11" t="s">
+        <v>86</v>
+      </c>
+      <c r="M11" t="s">
+        <v>11</v>
+      </c>
+      <c r="N11" t="s">
+        <v>12</v>
+      </c>
+      <c r="O11" t="s">
+        <v>13</v>
+      </c>
+      <c r="P11" s="2">
+        <v>38700</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" t="s">
+        <v>13</v>
+      </c>
+      <c r="U11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" t="s">
+        <v>16</v>
+      </c>
+      <c r="W11" t="s">
+        <v>17</v>
+      </c>
+      <c r="X11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA11" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>88</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>89</v>
+      </c>
+      <c r="G12" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>91</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>9</v>
+      </c>
+      <c r="L12" t="s">
+        <v>93</v>
+      </c>
+      <c r="M12" t="s">
+        <v>11</v>
+      </c>
+      <c r="N12" t="s">
+        <v>12</v>
+      </c>
+      <c r="O12" t="s">
+        <v>13</v>
+      </c>
+      <c r="P12" s="2">
+        <v>38792</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" t="s">
+        <v>13</v>
+      </c>
+      <c r="U12" t="s">
+        <v>94</v>
+      </c>
+      <c r="V12" t="s">
+        <v>16</v>
+      </c>
+      <c r="W12" t="s">
+        <v>17</v>
+      </c>
+      <c r="X12" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z12" t="s">
         <v>20</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA12" t="s">
         <v>21</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E13" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>97</v>
+      </c>
+      <c r="H13" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" t="s">
+        <v>98</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" t="s">
+        <v>64</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" t="s">
+        <v>11</v>
+      </c>
+      <c r="N13" t="s">
+        <v>12</v>
+      </c>
+      <c r="O13" t="s">
+        <v>13</v>
+      </c>
+      <c r="P13" s="2">
+        <v>38792</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>37</v>
+      </c>
+      <c r="R13" s="2">
+        <v>44494</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" t="s">
+        <v>13</v>
+      </c>
+      <c r="U13" t="s">
+        <v>101</v>
+      </c>
+      <c r="V13" t="s">
+        <v>16</v>
+      </c>
+      <c r="W13" t="s">
+        <v>17</v>
+      </c>
+      <c r="X13" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s">
         <v>22</v>
       </c>
-      <c r="AB3" t="s">
-        <v>23</v>
+    </row>
+    <row r="14" spans="1:28">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" t="s">
+        <v>102</v>
+      </c>
+      <c r="E14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" t="s">
+        <v>105</v>
+      </c>
+      <c r="J14" t="s">
+        <v>106</v>
+      </c>
+      <c r="K14" t="s">
+        <v>64</v>
+      </c>
+      <c r="L14" t="s">
+        <v>107</v>
+      </c>
+      <c r="M14" t="s">
+        <v>11</v>
+      </c>
+      <c r="N14" t="s">
+        <v>12</v>
+      </c>
+      <c r="O14" t="s">
+        <v>13</v>
+      </c>
+      <c r="P14" s="2">
+        <v>38792</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" t="s">
+        <v>13</v>
+      </c>
+      <c r="U14" t="s">
+        <v>108</v>
+      </c>
+      <c r="V14" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" t="s">
+        <v>17</v>
+      </c>
+      <c r="X14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>110</v>
+      </c>
+      <c r="G15" t="s">
+        <v>111</v>
+      </c>
+      <c r="H15" t="s">
+        <v>7</v>
+      </c>
+      <c r="I15" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" t="s">
+        <v>113</v>
+      </c>
+      <c r="K15" t="s">
+        <v>64</v>
+      </c>
+      <c r="L15" t="s">
+        <v>114</v>
+      </c>
+      <c r="M15" t="s">
+        <v>11</v>
+      </c>
+      <c r="N15" t="s">
+        <v>12</v>
+      </c>
+      <c r="O15" t="s">
+        <v>13</v>
+      </c>
+      <c r="P15" s="2">
+        <v>38792</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>37</v>
+      </c>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" t="s">
+        <v>13</v>
+      </c>
+      <c r="U15" t="s">
+        <v>115</v>
+      </c>
+      <c r="V15" t="s">
+        <v>16</v>
+      </c>
+      <c r="W15" t="s">
+        <v>17</v>
+      </c>
+      <c r="X15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>64</v>
+      </c>
+      <c r="L16" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" t="s">
+        <v>11</v>
+      </c>
+      <c r="N16" t="s">
+        <v>12</v>
+      </c>
+      <c r="O16" t="s">
+        <v>13</v>
+      </c>
+      <c r="P16" s="2">
+        <v>38792</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>37</v>
+      </c>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" t="s">
+        <v>13</v>
+      </c>
+      <c r="U16" t="s">
+        <v>122</v>
+      </c>
+      <c r="V16" t="s">
+        <v>16</v>
+      </c>
+      <c r="W16" t="s">
+        <v>17</v>
+      </c>
+      <c r="X16" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" t="s">
+        <v>7</v>
+      </c>
+      <c r="I17" t="s">
+        <v>126</v>
+      </c>
+      <c r="J17" t="s">
+        <v>127</v>
+      </c>
+      <c r="K17" t="s">
+        <v>64</v>
+      </c>
+      <c r="L17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" t="s">
+        <v>12</v>
+      </c>
+      <c r="O17" t="s">
+        <v>13</v>
+      </c>
+      <c r="P17" s="2">
+        <v>38792</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>37</v>
+      </c>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" t="s">
+        <v>13</v>
+      </c>
+      <c r="U17" t="s">
+        <v>129</v>
+      </c>
+      <c r="V17" t="s">
+        <v>16</v>
+      </c>
+      <c r="W17" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" t="s">
+        <v>7</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
+      <c r="K18" t="s">
+        <v>64</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="s">
+        <v>11</v>
+      </c>
+      <c r="N18" t="s">
+        <v>12</v>
+      </c>
+      <c r="O18" t="s">
+        <v>13</v>
+      </c>
+      <c r="P18" s="2">
+        <v>38870</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>37</v>
+      </c>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" t="s">
+        <v>13</v>
+      </c>
+      <c r="U18" t="s">
+        <v>136</v>
+      </c>
+      <c r="V18" t="s">
+        <v>16</v>
+      </c>
+      <c r="W18" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>137</v>
+      </c>
+      <c r="E19" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" t="s">
+        <v>7</v>
+      </c>
+      <c r="I19" t="s">
+        <v>140</v>
+      </c>
+      <c r="J19" t="s">
+        <v>141</v>
+      </c>
+      <c r="K19" t="s">
+        <v>64</v>
+      </c>
+      <c r="L19" t="s">
+        <v>142</v>
+      </c>
+      <c r="M19" t="s">
+        <v>11</v>
+      </c>
+      <c r="N19" t="s">
+        <v>12</v>
+      </c>
+      <c r="O19" t="s">
+        <v>13</v>
+      </c>
+      <c r="P19" s="2">
+        <v>38870</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>37</v>
+      </c>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" t="s">
+        <v>13</v>
+      </c>
+      <c r="U19" t="s">
+        <v>143</v>
+      </c>
+      <c r="V19" t="s">
+        <v>16</v>
+      </c>
+      <c r="W19" t="s">
+        <v>17</v>
+      </c>
+      <c r="X19" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" t="s">
+        <v>7</v>
+      </c>
+      <c r="I20" t="s">
+        <v>147</v>
+      </c>
+      <c r="J20" t="s">
+        <v>148</v>
+      </c>
+      <c r="K20" t="s">
+        <v>64</v>
+      </c>
+      <c r="L20" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" t="s">
+        <v>11</v>
+      </c>
+      <c r="N20" t="s">
+        <v>12</v>
+      </c>
+      <c r="O20" t="s">
+        <v>13</v>
+      </c>
+      <c r="P20" s="2">
+        <v>38870</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" t="s">
+        <v>13</v>
+      </c>
+      <c r="U20" t="s">
+        <v>150</v>
+      </c>
+      <c r="V20" t="s">
+        <v>16</v>
+      </c>
+      <c r="W20" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>151</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" t="s">
+        <v>7</v>
+      </c>
+      <c r="I21" t="s">
+        <v>154</v>
+      </c>
+      <c r="J21" t="s">
+        <v>155</v>
+      </c>
+      <c r="K21" t="s">
+        <v>33</v>
+      </c>
+      <c r="L21" t="s">
+        <v>156</v>
+      </c>
+      <c r="M21" t="s">
+        <v>35</v>
+      </c>
+      <c r="N21" t="s">
+        <v>36</v>
+      </c>
+      <c r="O21" t="s">
+        <v>13</v>
+      </c>
+      <c r="P21" s="2">
+        <v>38870</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>37</v>
+      </c>
+      <c r="R21" s="2">
+        <v>44494</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" t="s">
+        <v>13</v>
+      </c>
+      <c r="U21" t="s">
+        <v>157</v>
+      </c>
+      <c r="V21" t="s">
+        <v>16</v>
+      </c>
+      <c r="W21" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22" t="s">
+        <v>162</v>
+      </c>
+      <c r="K22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L22" t="s">
+        <v>163</v>
+      </c>
+      <c r="M22" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" t="s">
+        <v>36</v>
+      </c>
+      <c r="O22" t="s">
+        <v>13</v>
+      </c>
+      <c r="P22" s="2">
+        <v>38870</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>164</v>
+      </c>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" t="s">
+        <v>13</v>
+      </c>
+      <c r="U22" t="s">
+        <v>165</v>
+      </c>
+      <c r="V22" t="s">
+        <v>16</v>
+      </c>
+      <c r="W22" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>167</v>
+      </c>
+      <c r="G23" t="s">
+        <v>168</v>
+      </c>
+      <c r="H23" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" t="s">
+        <v>169</v>
+      </c>
+      <c r="J23" t="s">
+        <v>170</v>
+      </c>
+      <c r="K23" t="s">
+        <v>171</v>
+      </c>
+      <c r="L23" t="s">
+        <v>172</v>
+      </c>
+      <c r="M23" t="s">
+        <v>173</v>
+      </c>
+      <c r="N23" t="s">
+        <v>174</v>
+      </c>
+      <c r="O23" t="s">
+        <v>13</v>
+      </c>
+      <c r="P23" s="2">
+        <v>39993</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>175</v>
+      </c>
+      <c r="R23" s="2">
+        <v>44500</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" t="s">
+        <v>13</v>
+      </c>
+      <c r="U23" t="s">
+        <v>176</v>
+      </c>
+      <c r="V23" t="s">
+        <v>16</v>
+      </c>
+      <c r="W23" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" t="s">
+        <v>179</v>
+      </c>
+      <c r="G24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" t="s">
+        <v>181</v>
+      </c>
+      <c r="J24" t="s">
+        <v>182</v>
+      </c>
+      <c r="K24" t="s">
+        <v>171</v>
+      </c>
+      <c r="L24" t="s">
+        <v>183</v>
+      </c>
+      <c r="M24" t="s">
+        <v>173</v>
+      </c>
+      <c r="N24" t="s">
+        <v>174</v>
+      </c>
+      <c r="O24" t="s">
+        <v>13</v>
+      </c>
+      <c r="P24" s="2">
+        <v>39980</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>175</v>
+      </c>
+      <c r="R24" s="2">
+        <v>44621</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" t="s">
+        <v>13</v>
+      </c>
+      <c r="U24" t="s">
+        <v>184</v>
+      </c>
+      <c r="V24" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" t="s">
+        <v>17</v>
+      </c>
+      <c r="X24" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="s">
+        <v>173</v>
+      </c>
+      <c r="N25" t="s">
+        <v>174</v>
+      </c>
+      <c r="O25" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="2">
+        <v>40117</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>175</v>
+      </c>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+      <c r="U25" t="s">
+        <v>191</v>
+      </c>
+      <c r="V25" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>192</v>
+      </c>
+      <c r="E26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>193</v>
+      </c>
+      <c r="G26" t="s">
+        <v>194</v>
+      </c>
+      <c r="H26" t="s">
+        <v>7</v>
+      </c>
+      <c r="I26" t="s">
+        <v>195</v>
+      </c>
+      <c r="J26" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" t="s">
+        <v>197</v>
+      </c>
+      <c r="L26" t="s">
+        <v>198</v>
+      </c>
+      <c r="M26" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" t="s">
+        <v>200</v>
+      </c>
+      <c r="O26" t="s">
+        <v>13</v>
+      </c>
+      <c r="P26" s="2">
+        <v>40528</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>201</v>
+      </c>
+      <c r="R26" s="2">
+        <v>44621</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" t="s">
+        <v>13</v>
+      </c>
+      <c r="U26" t="s">
+        <v>202</v>
+      </c>
+      <c r="V26" t="s">
+        <v>16</v>
+      </c>
+      <c r="W26" t="s">
+        <v>17</v>
+      </c>
+      <c r="X26" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>203</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>205</v>
+      </c>
+      <c r="G27" t="s">
+        <v>206</v>
+      </c>
+      <c r="H27" t="s">
+        <v>7</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
+      </c>
+      <c r="J27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K27" t="s">
+        <v>171</v>
+      </c>
+      <c r="L27" t="s">
+        <v>209</v>
+      </c>
+      <c r="M27" t="s">
+        <v>173</v>
+      </c>
+      <c r="N27" t="s">
+        <v>174</v>
+      </c>
+      <c r="O27" t="s">
+        <v>13</v>
+      </c>
+      <c r="P27" s="2">
+        <v>40663</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>201</v>
+      </c>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" t="s">
+        <v>13</v>
+      </c>
+      <c r="U27" t="s">
+        <v>210</v>
+      </c>
+      <c r="V27" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" t="s">
+        <v>17</v>
+      </c>
+      <c r="X27" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>177</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB27" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
